--- a/files/ch6/ch6_dataset2.xlsx
+++ b/files/ch6/ch6_dataset2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -368,6 +368,16 @@
           <t>MGMT1001</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>MGMT2605</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MGMT5450</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -380,6 +390,16 @@
           <t>92</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -392,6 +412,16 @@
           <t>77</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -402,6 +432,16 @@
       <c r="B4" t="inlineStr">
         <is>
           <t>86</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>99</t>
         </is>
       </c>
     </row>
